--- a/data/domain.xlsx
+++ b/data/domain.xlsx
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>domain -a enable -t od -s "domain=test.com,server=10.84.2.55,basedn='dc=test,dc=com',username=administrator,password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>domain -a enable -t ad -s "domain=2008ad.com,kdc=WIN-CC18N6QMNLL.2008AD.com, netbios=2008ad,username=administrator,password=password"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>domain -a enable -t od -s "domain=test.com,server=10.84.2.55,basedn='dc=test,dc=com',password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>domain -a check -t test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,10 +206,6 @@
     <t>-t: invalid setting test (ad|ldap|od)</t>
   </si>
   <si>
-    <t>domain -a enable -t od -s "domain=test.com,server=test,basedn='dc=test,dc=com',username=administrator,password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>security: invalid setting test (none|tls|ssl)</t>
   </si>
   <si>
@@ -306,6 +294,18 @@
   </si>
   <si>
     <t>Missing parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domain -a enable -t od -s "server=10.84.2.55,basedn='dc=test,dc=com',username=administrator,password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domain -a enable -t od -s "server=test,basedn='dc=test,dc=com',username=administrator,password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domain -a enable -t od -s "server=10.84.2.55,basedn='dc=test,dc=com',password=password"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,7 +660,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -699,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -804,7 +804,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -825,7 +825,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -854,49 +854,49 @@
     </row>
     <row r="2" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -904,82 +904,82 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -995,7 +995,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1041,51 +1041,51 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1096,29 +1096,29 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1309,18 +1309,18 @@
     </row>
     <row r="4" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>

--- a/data/domain.xlsx
+++ b/data/domain.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="list_domain" sheetId="1" r:id="rId1"/>
@@ -301,11 +301,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>domain -a enable -t od -s "server=10.84.2.55,basedn='dc=test,dc=com',password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>domain -a enable -t od -s "server=test,basedn='dc=test,dc=com',username=administrator,password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>domain -a enable -t od -s "server=10.84.2.55,basedn='dc=test,dc=com',password=password"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -824,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -995,7 +995,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
@@ -1264,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
